--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1201593.2987953</v>
+        <v>1197110.096273838</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30009477.79569961</v>
+        <v>30009477.79569958</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7276951.394760771</v>
+        <v>7276951.394760766</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4414163.398961749</v>
+        <v>4414163.39896175</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.89215638146403</v>
+        <v>57.89215638146401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>345.1619394267296</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.4630656507758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H12" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T12" t="n">
         <v>136.1614894255189</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I13" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.356991008623027</v>
+        <v>6.356991008623005</v>
       </c>
       <c r="S13" t="n">
         <v>152.8483877177524</v>
       </c>
       <c r="T13" t="n">
-        <v>237.0848299533737</v>
+        <v>95.09010733233197</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>171.7864280869638</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H14" t="n">
-        <v>181.6824769809921</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.89215638146403</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>360.696604046606</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H15" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T15" t="n">
         <v>136.1614894255189</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I16" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.356991008623019</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S16" t="n">
         <v>152.8483877177524</v>
@@ -1821,16 +1821,16 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3338237039372</v>
+        <v>68.60751591316354</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>71.60446419747377</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>108.6567679085054</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>397.4218818418004</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.89215638146401</v>
       </c>
       <c r="T17" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6118642180837</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H18" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T18" t="n">
         <v>136.1614894255189</v>
@@ -2004,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.86523558922325</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23.81777682572598</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.0848299533737</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>135.7666185779973</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3019706430941</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>253.2447596089999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.87670712429509</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>34.75555458253572</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>165.218028852301</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>187.8421479735242</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H24" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T24" t="n">
         <v>136.1614894255189</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>156.7151976385366</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8483877177524</v>
+        <v>68.1230505014873</v>
       </c>
       <c r="T25" t="n">
         <v>237.0848299533737</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>206.1909071294701</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>345.16193942673</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H27" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T27" t="n">
         <v>136.1614894255189</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.47373981880529</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>23.81777682572642</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.0848299533737</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>354.9678039257537</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>359.1705135529396</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T29" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H30" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T30" t="n">
         <v>136.1614894255189</v>
@@ -2955,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.55381815611138</v>
       </c>
       <c r="E31" t="n">
-        <v>34.75555458253527</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.0848299533737</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>339.938880082851</v>
       </c>
       <c r="C32" t="n">
-        <v>386.7173241903446</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H33" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T33" t="n">
         <v>136.1614894255189</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.33625846298324</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3195,16 +3195,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>152.8483877177524</v>
@@ -3243,16 +3243,16 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3338237039372</v>
+        <v>42.99888472122767</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>375.3662259109054</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.89215638146403</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>86.22490114025167</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H36" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T36" t="n">
         <v>136.1614894255189</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.8499060647337</v>
+        <v>101.5224826417613</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I37" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.356991008623019</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>152.8483877177524</v>
@@ -3508,19 +3508,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>169.7733899745566</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>345.1619394267291</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H39" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T39" t="n">
         <v>136.1614894255189</v>
@@ -3663,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>99.41475380443664</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>150.059493995859</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.356991008623019</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3338237039372</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>239.4138235677628</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.89215638146403</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T41" t="n">
         <v>209.9888884907911</v>
@@ -3802,13 +3802,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>376.9585995119006</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H42" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T42" t="n">
         <v>136.1614894255189</v>
@@ -3900,22 +3900,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0258150561151</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I43" t="n">
         <v>71.87667124394481</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.356991008623027</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.8483877177524</v>
@@ -3954,7 +3954,7 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3338237039372</v>
+        <v>62.92039852300024</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>286.9481738665268</v>
       </c>
       <c r="G44" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.57643937259393</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4073,7 +4073,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H45" t="n">
-        <v>42.54002271080372</v>
+        <v>42.54002271080371</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.6970716615656</v>
+        <v>60.69707166156559</v>
       </c>
       <c r="T45" t="n">
         <v>136.1614894255189</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H46" t="n">
         <v>134.4071151528002</v>
       </c>
       <c r="I46" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.356991008623027</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>74.12583048454017</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U46" t="n">
         <v>277.3338237039372</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>72.59768825673054</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.9462180064136</v>
+        <v>1319.091596862956</v>
       </c>
       <c r="C11" t="n">
-        <v>468.0454880197136</v>
+        <v>892.190866876256</v>
       </c>
       <c r="D11" t="n">
-        <v>468.0454880197136</v>
+        <v>468.8982460612563</v>
       </c>
       <c r="E11" t="n">
-        <v>468.0454880197136</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="F11" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G11" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H11" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I11" t="n">
-        <v>84.81242438636582</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J11" t="n">
-        <v>223.2074279870262</v>
+        <v>223.2074279870266</v>
       </c>
       <c r="K11" t="n">
-        <v>438.8706723956531</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L11" t="n">
-        <v>712.4165336350356</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M11" t="n">
         <v>1021.935294493278</v>
@@ -5065,7 +5065,7 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R11" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S11" t="n">
         <v>2087.588384817849</v>
@@ -5083,10 +5083,10 @@
         <v>2087.588384817849</v>
       </c>
       <c r="X11" t="n">
-        <v>1675.868385985596</v>
+        <v>1738.939961154486</v>
       </c>
       <c r="Y11" t="n">
-        <v>1314.794582297944</v>
+        <v>1738.939961154486</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>85.89102611901657</v>
       </c>
       <c r="H12" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I12" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J12" t="n">
-        <v>142.639713469636</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K12" t="n">
-        <v>290.9945042260693</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L12" t="n">
-        <v>498.0032414541159</v>
+        <v>521.4605472985281</v>
       </c>
       <c r="M12" t="n">
-        <v>999.3166222460543</v>
+        <v>766.1754707503072</v>
       </c>
       <c r="N12" t="n">
-        <v>1252.84982634843</v>
+        <v>1019.708674852683</v>
       </c>
       <c r="O12" t="n">
-        <v>1481.172459650423</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P12" t="n">
-        <v>1661.279878889663</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.565049518646</v>
+        <v>1668.109549233739</v>
       </c>
       <c r="R12" t="n">
         <v>1815.69702447452</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.9201782465825</v>
+        <v>673.5646783276875</v>
       </c>
       <c r="C13" t="n">
-        <v>618.9476151254985</v>
+        <v>673.5646783276875</v>
       </c>
       <c r="D13" t="n">
-        <v>618.9476151254985</v>
+        <v>510.2479054544582</v>
       </c>
       <c r="E13" t="n">
-        <v>452.739409278352</v>
+        <v>344.0396996073117</v>
       </c>
       <c r="F13" t="n">
-        <v>280.8776350529124</v>
+        <v>344.0396996073117</v>
       </c>
       <c r="G13" t="n">
-        <v>115.5240044353207</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H13" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I13" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J13" t="n">
-        <v>85.08605645578089</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K13" t="n">
-        <v>414.4766989644248</v>
+        <v>492.3984156126458</v>
       </c>
       <c r="L13" t="n">
-        <v>900.7952986208254</v>
+        <v>978.7170152690464</v>
       </c>
       <c r="M13" t="n">
-        <v>1430.765711837109</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N13" t="n">
-        <v>1908.51024606261</v>
+        <v>1623.630646742502</v>
       </c>
       <c r="O13" t="n">
-        <v>2011.378035272976</v>
+        <v>1726.498435952868</v>
       </c>
       <c r="P13" t="n">
-        <v>2096.301629592816</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q13" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R13" t="n">
-        <v>2139.644107416678</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="S13" t="n">
         <v>1985.251796590666</v>
       </c>
       <c r="T13" t="n">
-        <v>1745.772170375137</v>
+        <v>1889.201183123664</v>
       </c>
       <c r="U13" t="n">
-        <v>1465.636994916614</v>
+        <v>1889.201183123664</v>
       </c>
       <c r="V13" t="n">
-        <v>1465.636994916614</v>
+        <v>1607.489715731693</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.784591089127</v>
+        <v>1332.637311904206</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.26294655684</v>
+        <v>1090.073415350011</v>
       </c>
       <c r="Y13" t="n">
-        <v>790.9201782465825</v>
+        <v>863.7306470397532</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1052.056803412079</v>
+        <v>1723.248380730368</v>
       </c>
       <c r="C14" t="n">
-        <v>1052.056803412079</v>
+        <v>1296.347650743669</v>
       </c>
       <c r="D14" t="n">
-        <v>628.7641825970798</v>
+        <v>1296.347650743669</v>
       </c>
       <c r="E14" t="n">
-        <v>628.7641825970798</v>
+        <v>870.370710891526</v>
       </c>
       <c r="F14" t="n">
-        <v>628.7641825970798</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="G14" t="n">
-        <v>226.4389597252675</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H14" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I14" t="n">
-        <v>84.81242438636588</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J14" t="n">
         <v>223.2074279870264</v>
       </c>
       <c r="K14" t="n">
-        <v>438.8706723956536</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L14" t="n">
-        <v>712.4165336350363</v>
+        <v>712.416533635036</v>
       </c>
       <c r="M14" t="n">
         <v>1021.935294493278</v>
@@ -5302,7 +5302,7 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R14" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S14" t="n">
         <v>2087.588384817849</v>
@@ -5311,19 +5311,19 @@
         <v>2087.588384817849</v>
       </c>
       <c r="U14" t="n">
-        <v>1829.39458257736</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V14" t="n">
-        <v>1471.90516770361</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W14" t="n">
-        <v>1471.90516770361</v>
+        <v>1723.248380730368</v>
       </c>
       <c r="X14" t="n">
-        <v>1471.90516770361</v>
+        <v>1723.248380730368</v>
       </c>
       <c r="Y14" t="n">
-        <v>1471.90516770361</v>
+        <v>1723.248380730368</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>85.89102611901657</v>
       </c>
       <c r="H15" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I15" t="n">
-        <v>63.27049755628359</v>
+        <v>63.27049755628361</v>
       </c>
       <c r="J15" t="n">
-        <v>142.639713469636</v>
+        <v>399.2381708097948</v>
       </c>
       <c r="K15" t="n">
-        <v>290.9945042260694</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L15" t="n">
         <v>754.6016987942749</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.4026137732882</v>
+        <v>1017.399015674211</v>
       </c>
       <c r="C16" t="n">
-        <v>610.4026137732882</v>
+        <v>845.4264525531272</v>
       </c>
       <c r="D16" t="n">
-        <v>447.0858409000589</v>
+        <v>682.1096796798979</v>
       </c>
       <c r="E16" t="n">
-        <v>280.8776350529124</v>
+        <v>515.9014738327514</v>
       </c>
       <c r="F16" t="n">
-        <v>280.8776350529124</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G16" t="n">
-        <v>115.5240044353207</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I16" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J16" t="n">
         <v>163.0077731040018</v>
@@ -5442,25 +5442,25 @@
         <v>492.3984156126457</v>
       </c>
       <c r="L16" t="n">
-        <v>602.3281216778814</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.298534894165</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N16" t="n">
-        <v>1645.274675993217</v>
+        <v>1623.630646742502</v>
       </c>
       <c r="O16" t="n">
-        <v>1860.004537895077</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q16" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R16" t="n">
-        <v>2139.644107416678</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="S16" t="n">
         <v>1985.251796590666</v>
@@ -5469,19 +5469,19 @@
         <v>1745.772170375137</v>
       </c>
       <c r="U16" t="n">
-        <v>1465.636994916614</v>
+        <v>1676.47164925073</v>
       </c>
       <c r="V16" t="n">
-        <v>1183.925527524643</v>
+        <v>1676.47164925073</v>
       </c>
       <c r="W16" t="n">
-        <v>909.073123697156</v>
+        <v>1676.47164925073</v>
       </c>
       <c r="X16" t="n">
-        <v>836.7453820835461</v>
+        <v>1433.907752696535</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.4026137732882</v>
+        <v>1207.564984386277</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>867.6501713087605</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="C17" t="n">
-        <v>867.6501713087605</v>
+        <v>1719.640271558668</v>
       </c>
       <c r="D17" t="n">
-        <v>444.3575504937608</v>
+        <v>1296.347650743669</v>
       </c>
       <c r="E17" t="n">
-        <v>444.3575504937608</v>
+        <v>870.370710891526</v>
       </c>
       <c r="F17" t="n">
-        <v>444.3575504937608</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="G17" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H17" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I17" t="n">
-        <v>84.81242438636605</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J17" t="n">
         <v>223.2074279870266</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8706723956535</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L17" t="n">
-        <v>712.416533635036</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M17" t="n">
         <v>1021.935294493278</v>
@@ -5539,28 +5539,28 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R17" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S17" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T17" t="n">
-        <v>1933.955322081155</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U17" t="n">
-        <v>1675.761519840666</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="V17" t="n">
-        <v>1675.761519840666</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="W17" t="n">
-        <v>1279.370170141013</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="X17" t="n">
-        <v>867.6501713087605</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="Y17" t="n">
-        <v>867.6501713087605</v>
+        <v>1829.394582577361</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>85.89102611901657</v>
       </c>
       <c r="H18" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I18" t="n">
-        <v>63.27049755628359</v>
+        <v>63.27049755628362</v>
       </c>
       <c r="J18" t="n">
-        <v>142.639713469636</v>
+        <v>399.238170809794</v>
       </c>
       <c r="K18" t="n">
-        <v>290.9945042260694</v>
+        <v>547.5929615662275</v>
       </c>
       <c r="L18" t="n">
-        <v>754.6016987942749</v>
+        <v>754.6016987942743</v>
       </c>
       <c r="M18" t="n">
-        <v>999.3166222460538</v>
+        <v>999.3166222460534</v>
       </c>
       <c r="N18" t="n">
         <v>1252.849826348429</v>
       </c>
       <c r="O18" t="n">
-        <v>1481.172459650423</v>
+        <v>1481.172459650422</v>
       </c>
       <c r="P18" t="n">
         <v>1661.279878889663</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>250.0004901206375</v>
+        <v>410.8140039856636</v>
       </c>
       <c r="C19" t="n">
-        <v>250.0004901206375</v>
+        <v>238.8414408645797</v>
       </c>
       <c r="D19" t="n">
-        <v>250.0004901206375</v>
+        <v>238.8414408645797</v>
       </c>
       <c r="E19" t="n">
-        <v>214.7830804345534</v>
+        <v>238.8414408645797</v>
       </c>
       <c r="F19" t="n">
-        <v>42.92130620911383</v>
+        <v>66.97966663914008</v>
       </c>
       <c r="G19" t="n">
-        <v>42.92130620911383</v>
+        <v>66.97966663914008</v>
       </c>
       <c r="H19" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I19" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J19" t="n">
         <v>163.0077731040018</v>
       </c>
       <c r="K19" t="n">
-        <v>245.1158064986236</v>
+        <v>492.3984156126458</v>
       </c>
       <c r="L19" t="n">
-        <v>355.0455125638592</v>
+        <v>978.7170152690464</v>
       </c>
       <c r="M19" t="n">
-        <v>885.0159257801427</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N19" t="n">
-        <v>1066.6782198082</v>
+        <v>1210.09516627968</v>
       </c>
       <c r="O19" t="n">
-        <v>1547.248333321769</v>
+        <v>1690.665279793249</v>
       </c>
       <c r="P19" t="n">
-        <v>1944.928132214917</v>
+        <v>1944.928132214918</v>
       </c>
       <c r="Q19" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R19" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S19" t="n">
-        <v>1985.251796590666</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T19" t="n">
-        <v>1745.772170375137</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="U19" t="n">
-        <v>1465.636994916614</v>
+        <v>1626.45050878164</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.925527524643</v>
+        <v>1344.739041389669</v>
       </c>
       <c r="W19" t="n">
-        <v>909.073123697156</v>
+        <v>1069.886637562182</v>
       </c>
       <c r="X19" t="n">
-        <v>666.5092271429611</v>
+        <v>827.3227410079872</v>
       </c>
       <c r="Y19" t="n">
-        <v>440.1664588327031</v>
+        <v>600.9799726977293</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1573.591795093522</v>
+        <v>859.6286719944133</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.591795093522</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.591795093522</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.614855241379</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="F20" t="n">
         <v>722.4906734307796</v>
@@ -5746,19 +5746,19 @@
         <v>320.1654505589673</v>
       </c>
       <c r="H20" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I20" t="n">
-        <v>84.81242438636593</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J20" t="n">
-        <v>223.2074279870266</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K20" t="n">
-        <v>438.8706723956535</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L20" t="n">
-        <v>712.4165336350361</v>
+        <v>712.416533635036</v>
       </c>
       <c r="M20" t="n">
         <v>1021.935294493278</v>
@@ -5776,7 +5776,7 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R20" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S20" t="n">
         <v>2087.588384817849</v>
@@ -5785,19 +5785,19 @@
         <v>2087.588384817849</v>
       </c>
       <c r="U20" t="n">
-        <v>1829.39458257736</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V20" t="n">
-        <v>1829.39458257736</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W20" t="n">
-        <v>1829.39458257736</v>
+        <v>1691.197035118196</v>
       </c>
       <c r="X20" t="n">
-        <v>1829.39458257736</v>
+        <v>1279.477036285943</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.591795093522</v>
+        <v>1279.477036285943</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.89102611901657</v>
       </c>
       <c r="H21" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I21" t="n">
-        <v>63.2704975562836</v>
+        <v>63.27049755628361</v>
       </c>
       <c r="J21" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K21" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L21" t="n">
-        <v>498.0032414541162</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M21" t="n">
-        <v>742.7181649058953</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N21" t="n">
-        <v>996.2513690082708</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.574002310264</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R21" t="n">
         <v>1815.69702447452</v>
@@ -5886,55 +5886,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.7556435556374</v>
+        <v>250.0004901206379</v>
       </c>
       <c r="C22" t="n">
-        <v>214.7830804345534</v>
+        <v>78.02792699955396</v>
       </c>
       <c r="D22" t="n">
-        <v>214.7830804345534</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="E22" t="n">
-        <v>214.7830804345534</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="F22" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G22" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H22" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I22" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J22" t="n">
         <v>163.0077731040018</v>
       </c>
       <c r="K22" t="n">
-        <v>245.1158064986237</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L22" t="n">
-        <v>731.4344061550242</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M22" t="n">
-        <v>951.7350015510282</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N22" t="n">
-        <v>1066.6782198082</v>
+        <v>1623.630646742502</v>
       </c>
       <c r="O22" t="n">
-        <v>1547.248333321769</v>
+        <v>1726.498435952867</v>
       </c>
       <c r="P22" t="n">
-        <v>1944.928132214917</v>
+        <v>1944.928132214918</v>
       </c>
       <c r="Q22" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R22" t="n">
-        <v>2139.644107416678</v>
+        <v>2139.644107416679</v>
       </c>
       <c r="S22" t="n">
         <v>1985.251796590666</v>
@@ -5943,19 +5943,19 @@
         <v>1745.772170375137</v>
       </c>
       <c r="U22" t="n">
-        <v>1465.636994916614</v>
+        <v>1465.636994916615</v>
       </c>
       <c r="V22" t="n">
         <v>1183.925527524643</v>
       </c>
       <c r="W22" t="n">
-        <v>909.073123697156</v>
+        <v>909.0731236971565</v>
       </c>
       <c r="X22" t="n">
-        <v>666.5092271429611</v>
+        <v>666.5092271429615</v>
       </c>
       <c r="Y22" t="n">
-        <v>440.1664588327031</v>
+        <v>440.1664588327036</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>895.7989760479561</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="C23" t="n">
-        <v>468.8982460612563</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D23" t="n">
-        <v>468.8982460612563</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E23" t="n">
-        <v>42.92130620911383</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F23" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G23" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H23" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I23" t="n">
         <v>84.81242438636582</v>
@@ -5992,10 +5992,10 @@
         <v>223.2074279870262</v>
       </c>
       <c r="K23" t="n">
-        <v>438.8706723956531</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L23" t="n">
-        <v>712.4165336350356</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M23" t="n">
         <v>1021.935294493278</v>
@@ -6007,34 +6007,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P23" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q23" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R23" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S23" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T23" t="n">
-        <v>2146.065310455691</v>
+        <v>1933.955322081156</v>
       </c>
       <c r="U23" t="n">
-        <v>1887.871508215203</v>
+        <v>1933.955322081156</v>
       </c>
       <c r="V23" t="n">
-        <v>1887.871508215203</v>
+        <v>1933.955322081156</v>
       </c>
       <c r="W23" t="n">
-        <v>1720.984610384596</v>
+        <v>1933.955322081156</v>
       </c>
       <c r="X23" t="n">
-        <v>1720.984610384596</v>
+        <v>1933.955322081156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1315.647340339486</v>
+        <v>1744.215778673556</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G24" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H24" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I24" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J24" t="n">
-        <v>142.639713469636</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K24" t="n">
-        <v>290.9945042260694</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L24" t="n">
-        <v>498.0032414541161</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M24" t="n">
-        <v>742.718164905895</v>
+        <v>766.1754707503071</v>
       </c>
       <c r="N24" t="n">
-        <v>996.2513690082706</v>
+        <v>1019.708674852683</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.574002310263</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P24" t="n">
-        <v>1404.681421549504</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q24" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R24" t="n">
         <v>1815.69702447452</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>666.5092271429611</v>
+        <v>342.0028418629494</v>
       </c>
       <c r="C25" t="n">
-        <v>508.2110477100958</v>
+        <v>342.0028418629494</v>
       </c>
       <c r="D25" t="n">
-        <v>344.8942748368665</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="E25" t="n">
         <v>178.6860689897201</v>
@@ -6141,58 +6141,58 @@
         <v>178.6860689897201</v>
       </c>
       <c r="H25" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I25" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J25" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K25" t="n">
-        <v>167.1940898504027</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L25" t="n">
-        <v>277.1237959156384</v>
+        <v>653.5126895068033</v>
       </c>
       <c r="M25" t="n">
-        <v>553.7020787091481</v>
+        <v>769.947622260265</v>
       </c>
       <c r="N25" t="n">
-        <v>1066.6782198082</v>
+        <v>1282.923763359317</v>
       </c>
       <c r="O25" t="n">
-        <v>1547.248333321769</v>
+        <v>1763.493876872886</v>
       </c>
       <c r="P25" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q25" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R25" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S25" t="n">
-        <v>1985.251796590666</v>
+        <v>2077.254148332978</v>
       </c>
       <c r="T25" t="n">
-        <v>1745.772170375137</v>
+        <v>1837.774522117449</v>
       </c>
       <c r="U25" t="n">
-        <v>1465.636994916614</v>
+        <v>1557.639346658926</v>
       </c>
       <c r="V25" t="n">
-        <v>1183.925527524643</v>
+        <v>1275.927879266955</v>
       </c>
       <c r="W25" t="n">
-        <v>909.073123697156</v>
+        <v>1001.075475439468</v>
       </c>
       <c r="X25" t="n">
-        <v>666.5092271429611</v>
+        <v>758.511578885273</v>
       </c>
       <c r="Y25" t="n">
-        <v>666.5092271429611</v>
+        <v>532.1688105750151</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1168.582253184567</v>
+        <v>1667.74002052632</v>
       </c>
       <c r="C26" t="n">
-        <v>1168.582253184567</v>
+        <v>1240.83929053962</v>
       </c>
       <c r="D26" t="n">
-        <v>745.289632369567</v>
+        <v>817.54666972462</v>
       </c>
       <c r="E26" t="n">
-        <v>745.289632369567</v>
+        <v>391.5697298724775</v>
       </c>
       <c r="F26" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G26" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H26" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I26" t="n">
-        <v>84.81242438636582</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J26" t="n">
-        <v>223.2074279870262</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K26" t="n">
-        <v>438.8706723956531</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L26" t="n">
-        <v>712.4165336350356</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M26" t="n">
         <v>1021.935294493278</v>
@@ -6250,28 +6250,28 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R26" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S26" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T26" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U26" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="V26" t="n">
-        <v>1788.575895581941</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="W26" t="n">
-        <v>1788.575895581941</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="X26" t="n">
-        <v>1376.855896749688</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="Y26" t="n">
-        <v>1376.855896749688</v>
+        <v>2087.58838481785</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G27" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H27" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I27" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J27" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K27" t="n">
-        <v>547.5929615662282</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L27" t="n">
-        <v>754.6016987942749</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M27" t="n">
-        <v>999.3166222460538</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N27" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O27" t="n">
-        <v>1481.172459650423</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P27" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q27" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R27" t="n">
         <v>1815.69702447452</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>381.1020751773443</v>
+        <v>410.8140039856641</v>
       </c>
       <c r="C28" t="n">
-        <v>209.1295120562603</v>
+        <v>238.8414408645801</v>
       </c>
       <c r="D28" t="n">
-        <v>209.1295120562603</v>
+        <v>238.8414408645801</v>
       </c>
       <c r="E28" t="n">
-        <v>42.92130620911383</v>
+        <v>238.8414408645801</v>
       </c>
       <c r="F28" t="n">
-        <v>42.92130620911383</v>
+        <v>66.97966663914053</v>
       </c>
       <c r="G28" t="n">
-        <v>42.92130620911383</v>
+        <v>66.97966663914053</v>
       </c>
       <c r="H28" t="n">
-        <v>42.92130620911383</v>
+        <v>66.97966663914053</v>
       </c>
       <c r="I28" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J28" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K28" t="n">
-        <v>167.1940898504027</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L28" t="n">
-        <v>437.2671459556864</v>
+        <v>487.8613674440719</v>
       </c>
       <c r="M28" t="n">
-        <v>553.7020787091481</v>
+        <v>1017.831780660355</v>
       </c>
       <c r="N28" t="n">
-        <v>1066.6782198082</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O28" t="n">
-        <v>1547.248333321769</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P28" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q28" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R28" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S28" t="n">
-        <v>1985.251796590666</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T28" t="n">
-        <v>1745.772170375137</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="U28" t="n">
-        <v>1465.636994916614</v>
+        <v>1626.450508781641</v>
       </c>
       <c r="V28" t="n">
-        <v>1183.925527524643</v>
+        <v>1344.73904138967</v>
       </c>
       <c r="W28" t="n">
-        <v>909.073123697156</v>
+        <v>1069.886637562183</v>
       </c>
       <c r="X28" t="n">
-        <v>666.5092271429611</v>
+        <v>827.3227410079877</v>
       </c>
       <c r="Y28" t="n">
-        <v>440.1664588327031</v>
+        <v>600.9799726977297</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1255.913155549136</v>
+        <v>1675.868385985597</v>
       </c>
       <c r="C29" t="n">
-        <v>829.0124255624364</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D29" t="n">
-        <v>405.7198047474367</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E29" t="n">
-        <v>405.7198047474367</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F29" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G29" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H29" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I29" t="n">
-        <v>84.81242438636588</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J29" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K29" t="n">
-        <v>438.8706723956533</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L29" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M29" t="n">
         <v>1021.935294493278</v>
@@ -6487,28 +6487,28 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R29" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S29" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T29" t="n">
-        <v>1933.955322081155</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U29" t="n">
-        <v>1675.761519840666</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="V29" t="n">
-        <v>1675.761519840666</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="W29" t="n">
-        <v>1675.761519840666</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="X29" t="n">
-        <v>1675.761519840666</v>
+        <v>1675.868385985597</v>
       </c>
       <c r="Y29" t="n">
-        <v>1675.761519840666</v>
+        <v>1675.868385985597</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G30" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H30" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I30" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J30" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K30" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L30" t="n">
-        <v>498.0032414541161</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M30" t="n">
-        <v>742.718164905895</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N30" t="n">
-        <v>996.2513690082706</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O30" t="n">
-        <v>1224.574002310263</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P30" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q30" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R30" t="n">
         <v>1815.69702447452</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>250.0004901206375</v>
+        <v>410.8140039856641</v>
       </c>
       <c r="C31" t="n">
-        <v>78.0279269995535</v>
+        <v>238.8414408645801</v>
       </c>
       <c r="D31" t="n">
-        <v>78.0279269995535</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="E31" t="n">
-        <v>42.92130620911383</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="F31" t="n">
-        <v>42.92130620911383</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="G31" t="n">
-        <v>42.92130620911383</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H31" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I31" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J31" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K31" t="n">
-        <v>328.6508706024891</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L31" t="n">
-        <v>814.9694702588897</v>
+        <v>653.5126895068033</v>
       </c>
       <c r="M31" t="n">
-        <v>931.4044030123514</v>
+        <v>769.947622260265</v>
       </c>
       <c r="N31" t="n">
-        <v>1444.380544111403</v>
+        <v>1282.923763359317</v>
       </c>
       <c r="O31" t="n">
-        <v>1547.248333321769</v>
+        <v>1763.493876872886</v>
       </c>
       <c r="P31" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q31" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R31" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S31" t="n">
-        <v>1985.251796590666</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T31" t="n">
-        <v>1745.772170375137</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="U31" t="n">
-        <v>1465.636994916614</v>
+        <v>1626.450508781641</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.925527524643</v>
+        <v>1344.73904138967</v>
       </c>
       <c r="W31" t="n">
-        <v>909.073123697156</v>
+        <v>1069.886637562183</v>
       </c>
       <c r="X31" t="n">
-        <v>666.5092271429611</v>
+        <v>827.3227410079877</v>
       </c>
       <c r="Y31" t="n">
-        <v>440.1664588327031</v>
+        <v>600.9799726977297</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>859.5218058494831</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="C32" t="n">
-        <v>468.8982460612563</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D32" t="n">
-        <v>468.8982460612563</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E32" t="n">
-        <v>42.92130620911383</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F32" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="G32" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="H32" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I32" t="n">
-        <v>84.81242438636588</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J32" t="n">
-        <v>223.2074279870264</v>
+        <v>223.207427987027</v>
       </c>
       <c r="K32" t="n">
-        <v>438.8706723956533</v>
+        <v>438.8706723956539</v>
       </c>
       <c r="L32" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350366</v>
       </c>
       <c r="M32" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N32" t="n">
-        <v>1337.212136355668</v>
+        <v>1337.212136355669</v>
       </c>
       <c r="O32" t="n">
-        <v>1632.752137974935</v>
+        <v>1632.752137974936</v>
       </c>
       <c r="P32" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q32" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R32" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S32" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T32" t="n">
-        <v>1933.955322081155</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U32" t="n">
-        <v>1675.761519840666</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="V32" t="n">
-        <v>1675.761519840666</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="W32" t="n">
-        <v>1279.370170141013</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="X32" t="n">
-        <v>1279.370170141013</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="Y32" t="n">
-        <v>1279.370170141013</v>
+        <v>2087.58838481785</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G33" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H33" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I33" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J33" t="n">
-        <v>142.639713469636</v>
+        <v>166.0970193140479</v>
       </c>
       <c r="K33" t="n">
-        <v>290.9945042260694</v>
+        <v>314.4518100704813</v>
       </c>
       <c r="L33" t="n">
-        <v>498.0032414541161</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M33" t="n">
-        <v>742.718164905895</v>
+        <v>766.1754707503071</v>
       </c>
       <c r="N33" t="n">
-        <v>996.2513690082706</v>
+        <v>1019.708674852683</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.574002310263</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P33" t="n">
-        <v>1555.824378604757</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q33" t="n">
         <v>1668.10954923374</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>378.2106422034271</v>
+        <v>1017.399015674211</v>
       </c>
       <c r="C34" t="n">
-        <v>206.2380790823431</v>
+        <v>845.4264525531272</v>
       </c>
       <c r="D34" t="n">
-        <v>42.92130620911383</v>
+        <v>682.1096796798979</v>
       </c>
       <c r="E34" t="n">
-        <v>42.92130620911383</v>
+        <v>515.9014738327514</v>
       </c>
       <c r="F34" t="n">
-        <v>42.92130620911383</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G34" t="n">
-        <v>42.92130620911383</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H34" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I34" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J34" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K34" t="n">
-        <v>167.1940898504027</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L34" t="n">
-        <v>277.1237959156384</v>
+        <v>653.5126895068033</v>
       </c>
       <c r="M34" t="n">
-        <v>807.0942091319218</v>
+        <v>769.947622260265</v>
       </c>
       <c r="N34" t="n">
-        <v>1320.070350230974</v>
+        <v>1218.0517171861</v>
       </c>
       <c r="O34" t="n">
-        <v>1800.640463744543</v>
+        <v>1698.621830699669</v>
       </c>
       <c r="P34" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q34" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R34" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S34" t="n">
-        <v>1985.251796590666</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T34" t="n">
-        <v>1745.772170375137</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U34" t="n">
-        <v>1465.636994916614</v>
+        <v>1708.760156524022</v>
       </c>
       <c r="V34" t="n">
-        <v>1183.925527524643</v>
+        <v>1708.760156524022</v>
       </c>
       <c r="W34" t="n">
-        <v>909.073123697156</v>
+        <v>1433.907752696535</v>
       </c>
       <c r="X34" t="n">
-        <v>666.5092271429611</v>
+        <v>1433.907752696535</v>
       </c>
       <c r="Y34" t="n">
-        <v>440.1664588327031</v>
+        <v>1207.564984386277</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1271.348670826666</v>
+        <v>2000.492525080222</v>
       </c>
       <c r="C35" t="n">
-        <v>1271.348670826666</v>
+        <v>1573.591795093522</v>
       </c>
       <c r="D35" t="n">
-        <v>848.0560500116658</v>
+        <v>1573.591795093522</v>
       </c>
       <c r="E35" t="n">
-        <v>422.0791101595233</v>
+        <v>1147.614855241379</v>
       </c>
       <c r="F35" t="n">
-        <v>42.92130620911383</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="G35" t="n">
-        <v>42.92130620911383</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H35" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I35" t="n">
         <v>84.81242438636582</v>
@@ -6940,10 +6940,10 @@
         <v>223.2074279870262</v>
       </c>
       <c r="K35" t="n">
-        <v>438.8706723956531</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L35" t="n">
-        <v>712.4165336350356</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M35" t="n">
         <v>1021.935294493278</v>
@@ -6955,34 +6955,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P35" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q35" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R35" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T35" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U35" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="V35" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="W35" t="n">
-        <v>1691.197035118196</v>
+        <v>2000.492525080222</v>
       </c>
       <c r="X35" t="n">
-        <v>1691.197035118196</v>
+        <v>2000.492525080222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1691.197035118196</v>
+        <v>2000.492525080222</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G36" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H36" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I36" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J36" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K36" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L36" t="n">
-        <v>498.0032414541161</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M36" t="n">
-        <v>742.718164905895</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N36" t="n">
-        <v>996.2513690082706</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.574002310263</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P36" t="n">
-        <v>1404.681421549504</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q36" t="n">
         <v>1668.10954923374</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.7322102824671</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="C37" t="n">
-        <v>281.7322102824671</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="D37" t="n">
-        <v>281.7322102824671</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="E37" t="n">
-        <v>115.5240044353207</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="F37" t="n">
-        <v>115.5240044353207</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G37" t="n">
-        <v>115.5240044353207</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H37" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I37" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J37" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K37" t="n">
-        <v>167.1940898504027</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L37" t="n">
-        <v>421.7645883347448</v>
+        <v>588.640643333586</v>
       </c>
       <c r="M37" t="n">
-        <v>951.7350015510282</v>
+        <v>705.0755760870477</v>
       </c>
       <c r="N37" t="n">
-        <v>1066.6782198082</v>
+        <v>1218.0517171861</v>
       </c>
       <c r="O37" t="n">
-        <v>1547.248333321769</v>
+        <v>1698.621830699669</v>
       </c>
       <c r="P37" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q37" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R37" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S37" t="n">
-        <v>1985.251796590666</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T37" t="n">
-        <v>1745.772170375137</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U37" t="n">
-        <v>1465.636994916614</v>
+        <v>1472.058197955628</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.925527524643</v>
+        <v>1190.346730563657</v>
       </c>
       <c r="W37" t="n">
-        <v>909.073123697156</v>
+        <v>915.49432673617</v>
       </c>
       <c r="X37" t="n">
-        <v>666.5092271429611</v>
+        <v>672.9304301819751</v>
       </c>
       <c r="Y37" t="n">
-        <v>440.1664588327031</v>
+        <v>446.5876618717172</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.879676119052</v>
+        <v>1319.091596862956</v>
       </c>
       <c r="C38" t="n">
-        <v>893.9789461323519</v>
+        <v>892.190866876256</v>
       </c>
       <c r="D38" t="n">
-        <v>722.4906734307796</v>
+        <v>468.8982460612563</v>
       </c>
       <c r="E38" t="n">
-        <v>722.4906734307796</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="F38" t="n">
-        <v>722.4906734307796</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G38" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H38" t="n">
         <v>42.92130620911383</v>
       </c>
       <c r="I38" t="n">
-        <v>84.81242438636582</v>
+        <v>84.81242438636588</v>
       </c>
       <c r="J38" t="n">
-        <v>223.2074279870262</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K38" t="n">
-        <v>438.8706723956531</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L38" t="n">
-        <v>712.4165336350356</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M38" t="n">
         <v>1021.935294493278</v>
@@ -7201,25 +7201,25 @@
         <v>2146.065310455691</v>
       </c>
       <c r="S38" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T38" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U38" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V38" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W38" t="n">
-        <v>2146.065310455691</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X38" t="n">
-        <v>2146.065310455691</v>
+        <v>1738.939961154486</v>
       </c>
       <c r="Y38" t="n">
-        <v>1740.728040410582</v>
+        <v>1738.939961154486</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.92130620911383</v>
       </c>
       <c r="I39" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J39" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K39" t="n">
-        <v>290.9945042260694</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L39" t="n">
-        <v>498.0032414541161</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M39" t="n">
-        <v>742.718164905895</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N39" t="n">
-        <v>996.2513690082706</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.574002310263</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R39" t="n">
         <v>1815.69702447452</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>531.7119575126087</v>
+        <v>643.8724271621791</v>
       </c>
       <c r="C40" t="n">
-        <v>531.7119575126087</v>
+        <v>543.4534839253744</v>
       </c>
       <c r="D40" t="n">
-        <v>531.7119575126087</v>
+        <v>380.1367110521451</v>
       </c>
       <c r="E40" t="n">
         <v>380.1367110521451</v>
@@ -7332,25 +7332,25 @@
         <v>42.92130620911383</v>
       </c>
       <c r="J40" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K40" t="n">
-        <v>226.5581640009365</v>
+        <v>414.4766989644249</v>
       </c>
       <c r="L40" t="n">
-        <v>336.4878700661721</v>
+        <v>885.8942902859512</v>
       </c>
       <c r="M40" t="n">
-        <v>866.4582832824556</v>
+        <v>1415.864703502235</v>
       </c>
       <c r="N40" t="n">
-        <v>1379.434424381508</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O40" t="n">
-        <v>1860.004537895077</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P40" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q40" t="n">
         <v>2146.065310455691</v>
@@ -7359,25 +7359,25 @@
         <v>2139.644107416678</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.251796590666</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T40" t="n">
-        <v>1745.772170375137</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="U40" t="n">
-        <v>1465.636994916614</v>
+        <v>1859.508931958156</v>
       </c>
       <c r="V40" t="n">
-        <v>1465.636994916614</v>
+        <v>1577.797464566185</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.784591089127</v>
+        <v>1302.945060738698</v>
       </c>
       <c r="X40" t="n">
-        <v>948.2206945349322</v>
+        <v>1060.381164184503</v>
       </c>
       <c r="Y40" t="n">
-        <v>721.8779262246743</v>
+        <v>834.0383958742448</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>709.8776330376559</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="C41" t="n">
-        <v>468.0454880197136</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="D41" t="n">
-        <v>468.0454880197136</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="E41" t="n">
-        <v>468.0454880197136</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="F41" t="n">
-        <v>42.92130620911383</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="G41" t="n">
-        <v>42.92130620911383</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H41" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I41" t="n">
-        <v>84.81242438636588</v>
+        <v>84.81242438636593</v>
       </c>
       <c r="J41" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870266</v>
       </c>
       <c r="K41" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956535</v>
       </c>
       <c r="L41" t="n">
-        <v>712.4165336350364</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M41" t="n">
         <v>1021.935294493278</v>
@@ -7426,37 +7426,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O41" t="n">
-        <v>1632.752137974935</v>
+        <v>1632.752137974936</v>
       </c>
       <c r="P41" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q41" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R41" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T41" t="n">
-        <v>1875.478396443312</v>
+        <v>1875.478396443313</v>
       </c>
       <c r="U41" t="n">
-        <v>1875.478396443312</v>
+        <v>1875.478396443313</v>
       </c>
       <c r="V41" t="n">
-        <v>1517.988981569562</v>
+        <v>1517.988981569563</v>
       </c>
       <c r="W41" t="n">
-        <v>1121.597631869909</v>
+        <v>1137.22271943633</v>
       </c>
       <c r="X41" t="n">
-        <v>709.8776330376559</v>
+        <v>725.502720604077</v>
       </c>
       <c r="Y41" t="n">
-        <v>709.8776330376559</v>
+        <v>320.1654505589673</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G42" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H42" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I42" t="n">
-        <v>63.27049755628359</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J42" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K42" t="n">
-        <v>290.9945042260693</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L42" t="n">
-        <v>498.0032414541159</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M42" t="n">
-        <v>742.7181649058948</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N42" t="n">
-        <v>996.2513690082703</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O42" t="n">
-        <v>1224.574002310263</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P42" t="n">
-        <v>1404.681421549504</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q42" t="n">
         <v>1668.10954923374</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>758.0547258228667</v>
+        <v>754.7123779061047</v>
       </c>
       <c r="C43" t="n">
-        <v>586.0821627017826</v>
+        <v>754.7123779061047</v>
       </c>
       <c r="D43" t="n">
-        <v>422.7653898285533</v>
+        <v>754.7123779061047</v>
       </c>
       <c r="E43" t="n">
-        <v>422.7653898285533</v>
+        <v>588.5041720589583</v>
       </c>
       <c r="F43" t="n">
-        <v>250.9036156031138</v>
+        <v>416.6423978335187</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5240044353207</v>
+        <v>251.288767215927</v>
       </c>
       <c r="H43" t="n">
         <v>115.5240044353207</v>
       </c>
       <c r="I43" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J43" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K43" t="n">
-        <v>414.4766989644248</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L43" t="n">
-        <v>524.4064050296605</v>
+        <v>653.5126895068033</v>
       </c>
       <c r="M43" t="n">
-        <v>1054.376818245944</v>
+        <v>1183.483102723087</v>
       </c>
       <c r="N43" t="n">
-        <v>1567.352959344996</v>
+        <v>1696.459243822139</v>
       </c>
       <c r="O43" t="n">
-        <v>1860.004537895077</v>
+        <v>2011.378035272977</v>
       </c>
       <c r="P43" t="n">
-        <v>1944.928132214917</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q43" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R43" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S43" t="n">
-        <v>1985.251796590666</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T43" t="n">
-        <v>1745.772170375137</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U43" t="n">
-        <v>1465.636994916614</v>
+        <v>1688.63741531011</v>
       </c>
       <c r="V43" t="n">
-        <v>1465.636994916614</v>
+        <v>1688.63741531011</v>
       </c>
       <c r="W43" t="n">
-        <v>1190.784591089127</v>
+        <v>1413.785011482623</v>
       </c>
       <c r="X43" t="n">
-        <v>948.2206945349322</v>
+        <v>1171.221114928428</v>
       </c>
       <c r="Y43" t="n">
-        <v>948.2206945349322</v>
+        <v>944.8783466181703</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.370710891526</v>
+        <v>1012.337313699999</v>
       </c>
       <c r="C44" t="n">
-        <v>870.370710891526</v>
+        <v>1012.337313699999</v>
       </c>
       <c r="D44" t="n">
-        <v>870.370710891526</v>
+        <v>1012.337313699999</v>
       </c>
       <c r="E44" t="n">
-        <v>870.370710891526</v>
+        <v>1012.337313699999</v>
       </c>
       <c r="F44" t="n">
-        <v>445.2465290809261</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="G44" t="n">
-        <v>42.92130620911383</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H44" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I44" t="n">
-        <v>84.81242438636593</v>
+        <v>84.8124243863659</v>
       </c>
       <c r="J44" t="n">
         <v>223.2074279870265</v>
       </c>
       <c r="K44" t="n">
-        <v>438.8706723956533</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L44" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350361</v>
       </c>
       <c r="M44" t="n">
         <v>1021.935294493278</v>
@@ -7672,28 +7672,28 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R44" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.947694927819</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.947694927819</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="U44" t="n">
-        <v>2091.947694927819</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.947694927819</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.556345228166</v>
+        <v>1829.394582577361</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.556345228166</v>
+        <v>1417.674583745108</v>
       </c>
       <c r="Y44" t="n">
-        <v>1290.219075183056</v>
+        <v>1012.337313699999</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>928.9292107482964</v>
+        <v>598.5609247671249</v>
       </c>
       <c r="C45" t="n">
-        <v>811.4233072658012</v>
+        <v>481.0550212846297</v>
       </c>
       <c r="D45" t="n">
-        <v>707.5833487810862</v>
+        <v>377.2150627999147</v>
       </c>
       <c r="E45" t="n">
-        <v>602.8814150540235</v>
+        <v>272.5131290728519</v>
       </c>
       <c r="F45" t="n">
-        <v>509.2355847369276</v>
+        <v>178.8672987557561</v>
       </c>
       <c r="G45" t="n">
-        <v>416.2593121001881</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H45" t="n">
-        <v>373.2895921902854</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I45" t="n">
-        <v>393.6387835374551</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J45" t="n">
-        <v>473.0079994508076</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K45" t="n">
-        <v>621.3627902072409</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L45" t="n">
-        <v>828.3715274352876</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M45" t="n">
-        <v>1073.086450887067</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N45" t="n">
-        <v>1326.619654989442</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O45" t="n">
-        <v>1554.942288291435</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P45" t="n">
-        <v>1735.049707530675</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q45" t="n">
-        <v>2103.933335499817</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R45" t="n">
-        <v>2146.065310455691</v>
+        <v>1815.69702447452</v>
       </c>
       <c r="S45" t="n">
-        <v>2084.75513706017</v>
+        <v>1754.386851078999</v>
       </c>
       <c r="T45" t="n">
-        <v>1947.218279054596</v>
+        <v>1616.849993073424</v>
       </c>
       <c r="U45" t="n">
-        <v>1762.52097107592</v>
+        <v>1432.152685094749</v>
       </c>
       <c r="V45" t="n">
-        <v>1557.547832215187</v>
+        <v>1227.179546234015</v>
       </c>
       <c r="W45" t="n">
-        <v>1361.026455048404</v>
+        <v>1030.658169067232</v>
       </c>
       <c r="X45" t="n">
-        <v>1197.549108815067</v>
+        <v>867.1808228338953</v>
       </c>
       <c r="Y45" t="n">
-        <v>1057.856220168359</v>
+        <v>727.4879341871876</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.6055400891563</v>
+        <v>845.5372414487716</v>
       </c>
       <c r="C46" t="n">
-        <v>414.6055400891563</v>
+        <v>673.5646783276876</v>
       </c>
       <c r="D46" t="n">
-        <v>251.288767215927</v>
+        <v>510.2479054544583</v>
       </c>
       <c r="E46" t="n">
-        <v>251.288767215927</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="F46" t="n">
-        <v>251.288767215927</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G46" t="n">
-        <v>251.288767215927</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H46" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="I46" t="n">
-        <v>42.92130620911383</v>
+        <v>42.92130620911384</v>
       </c>
       <c r="J46" t="n">
-        <v>85.08605645578089</v>
+        <v>85.08605645578092</v>
       </c>
       <c r="K46" t="n">
-        <v>167.1940898504027</v>
+        <v>167.1940898504028</v>
       </c>
       <c r="L46" t="n">
-        <v>487.8613674440713</v>
+        <v>588.640643333586</v>
       </c>
       <c r="M46" t="n">
-        <v>1017.831780660355</v>
+        <v>705.0755760870477</v>
       </c>
       <c r="N46" t="n">
-        <v>1530.807921759407</v>
+        <v>1218.0517171861</v>
       </c>
       <c r="O46" t="n">
-        <v>2011.378035272976</v>
+        <v>1698.621830699669</v>
       </c>
       <c r="P46" t="n">
-        <v>2096.301629592816</v>
+        <v>2096.301629592817</v>
       </c>
       <c r="Q46" t="n">
-        <v>2146.065310455691</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="R46" t="n">
-        <v>2139.644107416678</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.251796590666</v>
+        <v>2146.065310455692</v>
       </c>
       <c r="T46" t="n">
-        <v>1910.377220343655</v>
+        <v>1906.585684240163</v>
       </c>
       <c r="U46" t="n">
-        <v>1630.242044885133</v>
+        <v>1626.450508781641</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.530577493162</v>
+        <v>1626.450508781641</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.678173665675</v>
+        <v>1351.598104954154</v>
       </c>
       <c r="X46" t="n">
-        <v>831.1142771114799</v>
+        <v>1109.034208399959</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.7715088012219</v>
+        <v>1035.703210160837</v>
       </c>
     </row>
   </sheetData>
@@ -8224,7 +8224,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N5" t="n">
         <v>9.912735448118685</v>
@@ -8291,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J6" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K6" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L6" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M6" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P6" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q6" t="n">
         <v>12.27186175772305</v>
@@ -8455,13 +8455,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K8" t="n">
-        <v>14.09296117214527</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L8" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M8" t="n">
-        <v>7.515868967310215</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N8" t="n">
         <v>6.880166552921242</v>
@@ -8473,7 +8473,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.72668497534604</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R8" t="n">
         <v>24.33067662398352</v>
@@ -8534,7 +8534,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K9" t="n">
-        <v>7.679584047590231</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L9" t="n">
         <v>2.722701059689193</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.483625009529547</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P9" t="n">
         <v>4.364096701700124</v>
@@ -8625,7 +8625,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O10" t="n">
-        <v>11.69730019489985</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P10" t="n">
         <v>13.13791998612571</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>259.190360949656</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>128.9754052634752</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8859,13 +8859,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N13" t="n">
-        <v>366.4659757255849</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>287.7571710304125</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>259.1903609496553</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>112.9919926176709</v>
+        <v>287.7571710304129</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>259.1903609496545</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>259.1903609496554</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>67.39300582917734</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>171.049755658412</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>152.6696535911648</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>259.190360949655</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>104.9148107500426</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>134.8546484264746</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>259.1903609496557</v>
+        <v>128.9754052634759</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>161.7609596364121</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>250.3880387879701</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K27" t="n">
-        <v>259.1903609496553</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>161.7609596364121</v>
+        <v>212.8662338671045</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>259.1903609496555</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>163.0876573253398</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10284,13 +10284,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>250.3880387879701</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>152.6696535911651</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>128.9754052634759</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10512,22 +10512,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>336.5261380491543</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>59.96371126316542</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.6696535911652</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10749,13 +10749,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>146.1018105243499</v>
+        <v>314.6634822403511</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>259.1903609496555</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.96371126316544</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>365.1392780366573</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.6696535911654</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,10 +11220,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11232,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>191.7007973128435</v>
+        <v>214.1929315560322</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>259.1903609496559</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>212.866233867104</v>
+        <v>314.6634822403511</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1253022837962369</v>
+        <v>0.125302283796259</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3019706430941</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>62.44085941720061</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.82083169388278</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.8766712439448</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>141.9947226210417</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>68.35182950168911</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>92.78922592536279</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>209.9888884907911</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>31.73083215605061</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>208.7263077907737</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>168.5337933911791</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>313.9749547783275</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8800888012937094</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>274.4717029063549</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>129.6808881994517</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.7000943114157</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4071151528002</v>
+        <v>110.5893383270742</v>
       </c>
       <c r="I19" t="n">
-        <v>71.87667124394481</v>
+        <v>71.8766712439448</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.356991008623005</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>286.8651041088355</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>209.9888884907911</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.0391377356586</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.3876019006499</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>126.9280505619613</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.7000943114157</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3019706430941</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.89215638146403</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>227.2094073503556</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>213.4417493711344</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>13.53763985133656</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>84.72533721626515</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.4589735191446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>75.7110005657637</v>
       </c>
       <c r="G26" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.9888884907911</v>
@@ -24502,13 +24502,13 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>129.7905692061397</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.7000943114157</v>
@@ -24621,7 +24621,7 @@
         <v>134.4071151528002</v>
       </c>
       <c r="I28" t="n">
-        <v>71.87667124394481</v>
+        <v>48.05889441821839</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>67.66391876107917</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>61.70242643955413</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3019706430941</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,7 +24745,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>102.1297869883856</v>
       </c>
       <c r="E31" t="n">
-        <v>129.7905692061397</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24855,7 +24855,7 @@
         <v>163.7000943114157</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>71.87667124394481</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>75.7110005657637</v>
       </c>
       <c r="C32" t="n">
-        <v>35.91439849648827</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3019706430941</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.9280505619618</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>71.87667124394481</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>234.3349389827096</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>45.50671408158837</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>306.2025350624049</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.41440296021133</v>
+        <v>86.74182638318372</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>249.2863046322931</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.89215638146403</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.9888884907911</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>62.44085941720107</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>70.8380836854365</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>14.48662979281599</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>183.21789911907</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,13 +25639,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H41" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>15.46883669075601</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.67427925530063</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>214.413425180937</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>133.9247661259669</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.315717008870102</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.9888884907911</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T46" t="n">
-        <v>162.9589994688335</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>151.4816523704249</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332553.2508929773</v>
+        <v>332553.2508929774</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332553.2508929773</v>
+        <v>332553.2508929775</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>332553.2508929774</v>
+        <v>332553.2508929775</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332553.2508929774</v>
+        <v>332553.2508929776</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332553.2508929774</v>
+        <v>332553.2508929775</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332553.2508929775</v>
+        <v>332553.2508929776</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487693.629700738</v>
+        <v>487693.6297007379</v>
       </c>
       <c r="C2" t="n">
-        <v>487704.0069784228</v>
+        <v>487704.0069784232</v>
       </c>
       <c r="D2" t="n">
-        <v>487705.1569012873</v>
+        <v>487705.1569012871</v>
       </c>
       <c r="E2" t="n">
+        <v>290739.8124452684</v>
+      </c>
+      <c r="F2" t="n">
         <v>290739.8124452685</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>290739.8124452684</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>290739.8124452686</v>
+      </c>
+      <c r="I2" t="n">
+        <v>290739.8124452686</v>
+      </c>
+      <c r="J2" t="n">
+        <v>290739.8124452686</v>
+      </c>
+      <c r="K2" t="n">
         <v>290739.8124452685</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>290739.8124452684</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>290739.8124452686</v>
+      </c>
+      <c r="N2" t="n">
+        <v>290739.8124452685</v>
+      </c>
+      <c r="O2" t="n">
         <v>290739.8124452684</v>
       </c>
-      <c r="J2" t="n">
-        <v>290739.8124452685</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>290739.8124452684</v>
-      </c>
-      <c r="L2" t="n">
-        <v>290739.8124452685</v>
-      </c>
-      <c r="M2" t="n">
-        <v>290739.8124452685</v>
-      </c>
-      <c r="N2" t="n">
-        <v>290739.8124452684</v>
-      </c>
-      <c r="O2" t="n">
-        <v>290739.8124452686</v>
-      </c>
-      <c r="P2" t="n">
-        <v>290739.8124452685</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>3620.625146095259</v>
       </c>
       <c r="E3" t="n">
-        <v>524578.4119623891</v>
+        <v>524578.4119623894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>326666.1812112284</v>
       </c>
       <c r="C4" t="n">
-        <v>313826.9477707467</v>
+        <v>313826.9477707468</v>
       </c>
       <c r="D4" t="n">
-        <v>312459.3647125762</v>
+        <v>312459.3647125761</v>
       </c>
       <c r="E4" t="n">
+        <v>25155.11382597348</v>
+      </c>
+      <c r="F4" t="n">
         <v>25155.11382597351</v>
       </c>
-      <c r="F4" t="n">
-        <v>25155.1138259735</v>
-      </c>
       <c r="G4" t="n">
-        <v>25155.1138259735</v>
+        <v>25155.11382597348</v>
       </c>
       <c r="H4" t="n">
-        <v>25155.11382597349</v>
+        <v>25155.11382597351</v>
       </c>
       <c r="I4" t="n">
         <v>25155.11382597351</v>
       </c>
       <c r="J4" t="n">
-        <v>25155.1138259735</v>
+        <v>25155.11382597351</v>
       </c>
       <c r="K4" t="n">
-        <v>25155.11382597351</v>
+        <v>25155.11382597352</v>
       </c>
       <c r="L4" t="n">
         <v>25155.11382597351</v>
@@ -26453,10 +26453,10 @@
         <v>25155.11382597351</v>
       </c>
       <c r="N4" t="n">
-        <v>25155.1138259735</v>
+        <v>25155.11382597349</v>
       </c>
       <c r="O4" t="n">
-        <v>25155.11382597352</v>
+        <v>25155.11382597351</v>
       </c>
       <c r="P4" t="n">
         <v>25155.11382597351</v>
@@ -26478,40 +26478,40 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="F5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403697</v>
       </c>
       <c r="G5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="H5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403697</v>
       </c>
       <c r="I5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="J5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="K5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="L5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="M5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="N5" t="n">
         <v>43431.53559403696</v>
       </c>
       <c r="O5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
       <c r="P5" t="n">
-        <v>43431.53559403696</v>
+        <v>43431.53559403698</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127399.8484895096</v>
+        <v>127378.1348480132</v>
       </c>
       <c r="C6" t="n">
-        <v>104676.6854275037</v>
+        <v>104655.0023074126</v>
       </c>
       <c r="D6" t="n">
-        <v>137073.6958221227</v>
+        <v>137052.0160841574</v>
       </c>
       <c r="E6" t="n">
-        <v>-302425.2489371311</v>
+        <v>-303026.2385117321</v>
       </c>
       <c r="F6" t="n">
-        <v>222153.1630252579</v>
+        <v>221552.1734506573</v>
       </c>
       <c r="G6" t="n">
-        <v>222153.1630252581</v>
+        <v>221552.1734506573</v>
       </c>
       <c r="H6" t="n">
-        <v>222153.163025258</v>
+        <v>221552.1734506575</v>
       </c>
       <c r="I6" t="n">
-        <v>222153.163025258</v>
+        <v>221552.1734506575</v>
       </c>
       <c r="J6" t="n">
-        <v>222153.1630252581</v>
+        <v>221552.1734506575</v>
       </c>
       <c r="K6" t="n">
-        <v>222153.163025258</v>
+        <v>221552.1734506573</v>
       </c>
       <c r="L6" t="n">
-        <v>222153.163025258</v>
+        <v>221552.1734506573</v>
       </c>
       <c r="M6" t="n">
-        <v>88451.14811855801</v>
+        <v>87850.15854395746</v>
       </c>
       <c r="N6" t="n">
-        <v>222153.1630252579</v>
+        <v>221552.1734506574</v>
       </c>
       <c r="O6" t="n">
-        <v>222153.1630252581</v>
+        <v>221552.1734506573</v>
       </c>
       <c r="P6" t="n">
-        <v>222153.163025258</v>
+        <v>221552.1734506573</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087366</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087366</v>
       </c>
       <c r="H3" t="n">
         <v>495.9331594087365</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9331594087363</v>
+        <v>495.9331594087365</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.516327613923</v>
       </c>
       <c r="F4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.516327613923</v>
       </c>
       <c r="G4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.516327613923</v>
       </c>
       <c r="H4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.516327613923</v>
       </c>
       <c r="I4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="J4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="K4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="L4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="N4" t="n">
         <v>536.5163276139228</v>
       </c>
       <c r="O4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="P4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.5163276139231</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>4.227657588613987</v>
       </c>
       <c r="E3" t="n">
-        <v>453.5537456246482</v>
+        <v>453.5537456246485</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.516327613923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.516327613923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I5" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J5" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K5" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L5" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M5" t="n">
         <v>26.93111380928054</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H6" t="n">
         <v>0.7925487466267348</v>
@@ -31366,7 +31366,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J6" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K6" t="n">
         <v>13.25125667781857</v>
@@ -31393,13 +31393,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S6" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T6" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I7" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J7" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K7" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L7" t="n">
         <v>10.22842329214398</v>
@@ -31460,22 +31460,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O7" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P7" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R7" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S7" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U7" t="n">
         <v>0.003752631756931878</v>
@@ -31521,13 +31521,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I8" t="n">
-        <v>6.568170250898711</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J8" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K8" t="n">
-        <v>21.67163962266407</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L8" t="n">
         <v>26.88558528937678</v>
@@ -31551,7 +31551,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S8" t="n">
-        <v>3.882295041627764</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T8" t="n">
         <v>0.7457924978486244</v>
@@ -31597,7 +31597,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8803723504958667</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I9" t="n">
         <v>3.138475454765011</v>
@@ -31618,7 +31618,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>21.68826471269267</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P9" t="n">
         <v>17.40674450312854</v>
@@ -31633,10 +31633,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3674215213922348</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005997086856238875</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,13 +31700,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P10" t="n">
-        <v>9.242880671860769</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q10" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R10" t="n">
-        <v>3.436206238952448</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S10" t="n">
         <v>1.331825184001586</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41799183435063</v>
+        <v>20.41799183435064</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86216332906658</v>
+        <v>76.86216332906662</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2128924155467</v>
+        <v>169.2128924155468</v>
       </c>
       <c r="K11" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L11" t="n">
-        <v>314.620993179474</v>
+        <v>314.6209931794742</v>
       </c>
       <c r="M11" t="n">
-        <v>350.0764758875548</v>
+        <v>350.076475887555</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7410792611029</v>
+        <v>355.7410792611031</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9162135168993</v>
+        <v>335.9162135168996</v>
       </c>
       <c r="P11" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R11" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412698</v>
       </c>
       <c r="T11" t="n">
-        <v>8.72742675502208</v>
+        <v>8.727426755022085</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.066724154199923</v>
+        <v>1.066724154199924</v>
       </c>
       <c r="H12" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I12" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451493</v>
       </c>
       <c r="J12" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K12" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L12" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M12" t="n">
-        <v>270.2835718777612</v>
+        <v>270.2835718777614</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4371737714968</v>
+        <v>277.4371737714969</v>
       </c>
       <c r="O12" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P12" t="n">
-        <v>203.6975273050714</v>
+        <v>203.6975273050715</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1664025606779</v>
+        <v>136.166402560678</v>
       </c>
       <c r="R12" t="n">
-        <v>66.23046985462334</v>
+        <v>66.23046985462338</v>
       </c>
       <c r="S12" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279244</v>
       </c>
       <c r="T12" t="n">
-        <v>4.299646919779514</v>
+        <v>4.299646919779517</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104766</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944429</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951190654126957</v>
+        <v>7.951190654126962</v>
       </c>
       <c r="I13" t="n">
-        <v>26.89421133318197</v>
+        <v>26.89421133318198</v>
       </c>
       <c r="J13" t="n">
-        <v>63.22741279871708</v>
+        <v>63.22741279871711</v>
       </c>
       <c r="K13" t="n">
-        <v>103.902061922027</v>
+        <v>103.9020619220271</v>
       </c>
       <c r="L13" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M13" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N13" t="n">
-        <v>136.8531618414305</v>
+        <v>136.8531618414306</v>
       </c>
       <c r="O13" t="n">
-        <v>126.4060452866727</v>
+        <v>126.4060452866728</v>
       </c>
       <c r="P13" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.88590707071917</v>
+        <v>74.88590707071921</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107558</v>
       </c>
       <c r="S13" t="n">
-        <v>15.58530928830405</v>
+        <v>15.58530928830406</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985346</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04878031076151509</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H14" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I14" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J14" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K14" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L14" t="n">
         <v>314.6209931794741</v>
@@ -32010,28 +32010,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N14" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P14" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R14" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S14" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T14" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I15" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J15" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K15" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L15" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M15" t="n">
         <v>270.2835718777613</v>
@@ -32092,7 +32092,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O15" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P15" t="n">
         <v>203.6975273050714</v>
@@ -32101,16 +32101,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R15" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S15" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T15" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I16" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J16" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K16" t="n">
         <v>103.902061922027</v>
@@ -32165,7 +32165,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M16" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N16" t="n">
         <v>136.8531618414306</v>
@@ -32177,19 +32177,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R16" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S16" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T16" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H17" t="n">
-        <v>20.41799183435063</v>
+        <v>20.41799183435064</v>
       </c>
       <c r="I17" t="n">
-        <v>76.86216332906658</v>
+        <v>76.86216332906662</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2128924155467</v>
+        <v>169.2128924155468</v>
       </c>
       <c r="K17" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L17" t="n">
-        <v>314.6209931794741</v>
+        <v>314.6209931794742</v>
       </c>
       <c r="M17" t="n">
-        <v>350.0764758875549</v>
+        <v>350.076475887555</v>
       </c>
       <c r="N17" t="n">
-        <v>355.7410792611029</v>
+        <v>355.7410792611031</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168996</v>
       </c>
       <c r="P17" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q17" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R17" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S17" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412698</v>
       </c>
       <c r="T17" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022085</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I18" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451493</v>
       </c>
       <c r="J18" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K18" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L18" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M18" t="n">
-        <v>270.2835718777613</v>
+        <v>270.2835718777614</v>
       </c>
       <c r="N18" t="n">
-        <v>277.4371737714968</v>
+        <v>277.4371737714969</v>
       </c>
       <c r="O18" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P18" t="n">
-        <v>203.6975273050714</v>
+        <v>203.6975273050715</v>
       </c>
       <c r="Q18" t="n">
         <v>136.166402560678</v>
       </c>
       <c r="R18" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462338</v>
       </c>
       <c r="S18" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279244</v>
       </c>
       <c r="T18" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779517</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104766</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944429</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951190654126958</v>
+        <v>7.951190654126962</v>
       </c>
       <c r="I19" t="n">
-        <v>26.89421133318197</v>
+        <v>26.89421133318198</v>
       </c>
       <c r="J19" t="n">
-        <v>63.22741279871708</v>
+        <v>63.22741279871711</v>
       </c>
       <c r="K19" t="n">
-        <v>103.902061922027</v>
+        <v>103.9020619220271</v>
       </c>
       <c r="L19" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M19" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N19" t="n">
         <v>136.8531618414306</v>
       </c>
       <c r="O19" t="n">
-        <v>126.4060452866727</v>
+        <v>126.4060452866728</v>
       </c>
       <c r="P19" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.88590707071918</v>
+        <v>74.88590707071921</v>
       </c>
       <c r="R19" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107558</v>
       </c>
       <c r="S19" t="n">
-        <v>15.58530928830405</v>
+        <v>15.58530928830406</v>
       </c>
       <c r="T19" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985346</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H23" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I23" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J23" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K23" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L23" t="n">
         <v>314.6209931794741</v>
@@ -32721,28 +32721,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N23" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P23" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R23" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T23" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I24" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J24" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K24" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L24" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M24" t="n">
         <v>270.2835718777613</v>
@@ -32803,7 +32803,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O24" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P24" t="n">
         <v>203.6975273050714</v>
@@ -32812,16 +32812,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S24" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T24" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I25" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J25" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K25" t="n">
         <v>103.902061922027</v>
@@ -32876,7 +32876,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M25" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N25" t="n">
         <v>136.8531618414306</v>
@@ -32888,19 +32888,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S25" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H26" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I26" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J26" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K26" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L26" t="n">
         <v>314.6209931794741</v>
@@ -32958,28 +32958,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N26" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P26" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R26" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T26" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I27" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J27" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K27" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L27" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M27" t="n">
         <v>270.2835718777613</v>
@@ -33040,7 +33040,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O27" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P27" t="n">
         <v>203.6975273050714</v>
@@ -33049,16 +33049,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S27" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T27" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I28" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J28" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K28" t="n">
         <v>103.902061922027</v>
@@ -33113,7 +33113,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M28" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N28" t="n">
         <v>136.8531618414306</v>
@@ -33125,19 +33125,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S28" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H29" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I29" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J29" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K29" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L29" t="n">
         <v>314.6209931794741</v>
@@ -33195,28 +33195,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N29" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P29" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R29" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T29" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,16 +33259,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I30" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J30" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K30" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L30" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M30" t="n">
         <v>270.2835718777613</v>
@@ -33277,7 +33277,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O30" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P30" t="n">
         <v>203.6975273050714</v>
@@ -33286,16 +33286,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S30" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T30" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I31" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J31" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K31" t="n">
         <v>103.902061922027</v>
@@ -33350,7 +33350,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M31" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N31" t="n">
         <v>136.8531618414306</v>
@@ -33362,19 +33362,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S31" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H32" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I32" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J32" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K32" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L32" t="n">
         <v>314.6209931794741</v>
@@ -33432,28 +33432,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N32" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P32" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R32" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T32" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,16 +33496,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I33" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J33" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L33" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M33" t="n">
         <v>270.2835718777613</v>
@@ -33514,7 +33514,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O33" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P33" t="n">
         <v>203.6975273050714</v>
@@ -33523,16 +33523,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S33" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T33" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I34" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J34" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K34" t="n">
         <v>103.902061922027</v>
@@ -33587,7 +33587,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M34" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N34" t="n">
         <v>136.8531618414306</v>
@@ -33599,19 +33599,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S34" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H35" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I35" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J35" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K35" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L35" t="n">
         <v>314.6209931794741</v>
@@ -33669,28 +33669,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N35" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P35" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R35" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T35" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,16 +33733,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I36" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J36" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K36" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L36" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M36" t="n">
         <v>270.2835718777613</v>
@@ -33751,7 +33751,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O36" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P36" t="n">
         <v>203.6975273050714</v>
@@ -33760,16 +33760,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S36" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T36" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I37" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J37" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K37" t="n">
         <v>103.902061922027</v>
@@ -33824,7 +33824,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M37" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N37" t="n">
         <v>136.8531618414306</v>
@@ -33836,19 +33836,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S37" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H38" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I38" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J38" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K38" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L38" t="n">
         <v>314.6209931794741</v>
@@ -33906,28 +33906,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N38" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9162135168994</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P38" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q38" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R38" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T38" t="n">
-        <v>8.727426755022082</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,16 +33970,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I39" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J39" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K39" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L39" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M39" t="n">
         <v>270.2835718777613</v>
@@ -33988,7 +33988,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O39" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P39" t="n">
         <v>203.6975273050714</v>
@@ -33997,16 +33997,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23046985462335</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S39" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T39" t="n">
-        <v>4.299646919779515</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H40" t="n">
-        <v>7.951190654126958</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I40" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J40" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K40" t="n">
         <v>103.902061922027</v>
@@ -34061,7 +34061,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M40" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N40" t="n">
         <v>136.8531618414306</v>
@@ -34073,19 +34073,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.88590707071918</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S40" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0487803107615151</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H41" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I41" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J41" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K41" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L41" t="n">
-        <v>314.6209931794747</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M41" t="n">
-        <v>350.0764758875548</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N41" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9162135168993</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P41" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q41" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R41" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T41" t="n">
-        <v>8.72742675502208</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.066724154199923</v>
+        <v>1.066724154199924</v>
       </c>
       <c r="H42" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I42" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J42" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K42" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L42" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M42" t="n">
-        <v>270.2835718777612</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N42" t="n">
         <v>277.4371737714968</v>
       </c>
       <c r="O42" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P42" t="n">
         <v>203.6975273050714</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1664025606779</v>
+        <v>136.166402560678</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23046985462334</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S42" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T42" t="n">
-        <v>4.299646919779514</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H43" t="n">
-        <v>7.951190654126957</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I43" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J43" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K43" t="n">
         <v>103.902061922027</v>
@@ -34298,10 +34298,10 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M43" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N43" t="n">
-        <v>136.8531618414305</v>
+        <v>136.8531618414306</v>
       </c>
       <c r="O43" t="n">
         <v>126.4060452866727</v>
@@ -34310,19 +34310,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.88590707071917</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S43" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04878031076151509</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.993701143351702</v>
+        <v>1.993701143351703</v>
       </c>
       <c r="H44" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I44" t="n">
-        <v>76.86216332906658</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J44" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K44" t="n">
-        <v>253.6062618136243</v>
+        <v>253.6062618136244</v>
       </c>
       <c r="L44" t="n">
-        <v>314.620993179474</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M44" t="n">
-        <v>350.0764758875548</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N44" t="n">
-        <v>355.7410792611029</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9162135168993</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P44" t="n">
-        <v>286.6967165404042</v>
+        <v>286.6967165404043</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.2972943441213</v>
+        <v>215.2972943441214</v>
       </c>
       <c r="R44" t="n">
-        <v>125.2368294460665</v>
+        <v>125.2368294460671</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43146480412696</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T44" t="n">
-        <v>8.72742675502208</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1594960914681361</v>
+        <v>0.1594960914681362</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.066724154199923</v>
+        <v>1.066724154199924</v>
       </c>
       <c r="H45" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I45" t="n">
-        <v>36.72712548451491</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J45" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K45" t="n">
-        <v>172.2525578297306</v>
+        <v>172.2525578297307</v>
       </c>
       <c r="L45" t="n">
-        <v>231.6148212880141</v>
+        <v>231.6148212880142</v>
       </c>
       <c r="M45" t="n">
-        <v>270.2835718777612</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N45" t="n">
         <v>277.4371737714968</v>
       </c>
       <c r="O45" t="n">
-        <v>253.8008122494879</v>
+        <v>253.800812249488</v>
       </c>
       <c r="P45" t="n">
         <v>203.6975273050714</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1664025606779</v>
+        <v>136.166402560678</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23046985462334</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S45" t="n">
-        <v>19.81393330279242</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T45" t="n">
-        <v>4.299646919779514</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07017922067104762</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943056972944424</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H46" t="n">
-        <v>7.951190654126957</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I46" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J46" t="n">
-        <v>63.22741279871708</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K46" t="n">
         <v>103.902061922027</v>
@@ -34535,10 +34535,10 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M46" t="n">
-        <v>140.1864830768006</v>
+        <v>140.1864830768007</v>
       </c>
       <c r="N46" t="n">
-        <v>136.8531618414305</v>
+        <v>136.8531618414306</v>
       </c>
       <c r="O46" t="n">
         <v>126.4060452866727</v>
@@ -34547,19 +34547,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.88590707071917</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21123617107556</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S46" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821124342985344</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04878031076151509</v>
+        <v>0.04878031076151512</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31426078510307</v>
+        <v>42.31426078510312</v>
       </c>
       <c r="J11" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K11" t="n">
-        <v>217.8416610188149</v>
+        <v>217.8416610188151</v>
       </c>
       <c r="L11" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M11" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881232</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4614564266569</v>
+        <v>318.4614564266571</v>
       </c>
       <c r="O11" t="n">
-        <v>298.5252541608752</v>
+        <v>298.5252541608755</v>
       </c>
       <c r="P11" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.1726197395232</v>
+        <v>179.1726197395234</v>
       </c>
       <c r="R11" t="n">
-        <v>90.20417955126999</v>
+        <v>90.20417955127007</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17092516500243</v>
+        <v>80.17092516500249</v>
       </c>
       <c r="K12" t="n">
-        <v>149.8533239963973</v>
+        <v>149.8533239963974</v>
       </c>
       <c r="L12" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M12" t="n">
-        <v>506.3771523150892</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N12" t="n">
-        <v>256.0941455579551</v>
+        <v>256.0941455579552</v>
       </c>
       <c r="O12" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P12" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.4193642716994</v>
+        <v>242.3947695351747</v>
       </c>
       <c r="R12" t="n">
-        <v>42.55755046047919</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.5906568148152</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K13" t="n">
         <v>332.717820715802</v>
       </c>
       <c r="L13" t="n">
-        <v>491.230908743839</v>
+        <v>491.2309087438391</v>
       </c>
       <c r="M13" t="n">
-        <v>535.3236497134176</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N13" t="n">
-        <v>482.5702365914151</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O13" t="n">
-        <v>103.9068577882482</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P13" t="n">
-        <v>85.78140840387948</v>
+        <v>373.538579434292</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.26634430593423</v>
+        <v>50.26634430593427</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J14" t="n">
         <v>139.7929329299602</v>
@@ -35652,25 +35652,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L14" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M14" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N14" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O14" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P14" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q14" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R14" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.55473873451491</v>
+        <v>20.55473873451492</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17092516500243</v>
+        <v>339.3612861146578</v>
       </c>
       <c r="K15" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L15" t="n">
-        <v>468.2900955234399</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M15" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N15" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O15" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P15" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q15" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R15" t="n">
-        <v>42.55755046047921</v>
+        <v>42.55755046047922</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>332.717820715802</v>
       </c>
       <c r="L16" t="n">
-        <v>111.0401071366016</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M16" t="n">
-        <v>535.3236497134176</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N16" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O16" t="n">
-        <v>216.8988504059192</v>
+        <v>391.6640288186612</v>
       </c>
       <c r="P16" t="n">
-        <v>85.7814084038795</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.31426078510307</v>
+        <v>42.31426078510312</v>
       </c>
       <c r="J17" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K17" t="n">
-        <v>217.841661018815</v>
+        <v>217.8416610188151</v>
       </c>
       <c r="L17" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M17" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881232</v>
       </c>
       <c r="N17" t="n">
-        <v>318.4614564266569</v>
+        <v>318.4614564266571</v>
       </c>
       <c r="O17" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608755</v>
       </c>
       <c r="P17" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q17" t="n">
-        <v>179.1726197395233</v>
+        <v>179.1726197395234</v>
       </c>
       <c r="R17" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127007</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.55473873451491</v>
+        <v>20.55473873451493</v>
       </c>
       <c r="J18" t="n">
-        <v>80.17092516500243</v>
+        <v>339.361286114657</v>
       </c>
       <c r="K18" t="n">
-        <v>149.8533239963973</v>
+        <v>149.8533239963974</v>
       </c>
       <c r="L18" t="n">
-        <v>468.2900955234399</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N18" t="n">
-        <v>256.0941455579551</v>
+        <v>256.0941455579552</v>
       </c>
       <c r="O18" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P18" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q18" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R18" t="n">
-        <v>42.55755046047921</v>
+        <v>42.55755046047923</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>121.2994615099878</v>
       </c>
       <c r="K19" t="n">
-        <v>82.93740746931502</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L19" t="n">
-        <v>111.0401071366016</v>
+        <v>491.2309087438391</v>
       </c>
       <c r="M19" t="n">
-        <v>535.3236497134176</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N19" t="n">
-        <v>183.4972666950075</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O19" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844133</v>
       </c>
       <c r="P19" t="n">
-        <v>401.6967665587357</v>
+        <v>256.8311640622916</v>
       </c>
       <c r="Q19" t="n">
         <v>203.1688669098727</v>
@@ -36199,7 +36199,7 @@
         <v>20.55473873451492</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17092516500246</v>
+        <v>232.8405787561672</v>
       </c>
       <c r="K21" t="n">
         <v>149.8533239963973</v>
@@ -36217,13 +36217,13 @@
         <v>230.6289225272658</v>
       </c>
       <c r="P21" t="n">
-        <v>441.1170470498978</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q21" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R21" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>121.2994615099878</v>
       </c>
       <c r="K22" t="n">
-        <v>82.93740746931505</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L22" t="n">
         <v>491.230908743839</v>
       </c>
       <c r="M22" t="n">
-        <v>222.5258539353575</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N22" t="n">
         <v>116.1042608658302</v>
       </c>
       <c r="O22" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882483</v>
       </c>
       <c r="P22" t="n">
-        <v>401.6967665587357</v>
+        <v>220.6360568303541</v>
       </c>
       <c r="Q22" t="n">
         <v>203.1688669098727</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J23" t="n">
         <v>139.7929329299602</v>
@@ -36363,25 +36363,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L23" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M23" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N23" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O23" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P23" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q23" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R23" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17092516500243</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K24" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L24" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M24" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N24" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O24" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P24" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.6097252213551</v>
+        <v>242.3947695351754</v>
       </c>
       <c r="R24" t="n">
-        <v>42.55755046047921</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K25" t="n">
-        <v>82.93740746931502</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L25" t="n">
-        <v>111.0401071366016</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M25" t="n">
-        <v>279.3720028217269</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N25" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O25" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P25" t="n">
-        <v>401.6967665587357</v>
+        <v>336.1694471918497</v>
       </c>
       <c r="Q25" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J26" t="n">
         <v>139.7929329299602</v>
@@ -36600,25 +36600,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L26" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M26" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N26" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O26" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P26" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q26" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R26" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127064</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J27" t="n">
-        <v>80.17092516500243</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K27" t="n">
-        <v>409.0436849460526</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L27" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M27" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N27" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O27" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P27" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q27" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R27" t="n">
-        <v>42.55755046047921</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K28" t="n">
-        <v>82.93740746931502</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L28" t="n">
-        <v>272.8010667730138</v>
+        <v>323.9063410037062</v>
       </c>
       <c r="M28" t="n">
-        <v>117.6110431853148</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N28" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O28" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P28" t="n">
-        <v>401.6967665587357</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J29" t="n">
         <v>139.7929329299602</v>
@@ -36837,25 +36837,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L29" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M29" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N29" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O29" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P29" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q29" t="n">
-        <v>179.1726197395232</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R29" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127064</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J30" t="n">
-        <v>80.17092516500243</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K30" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L30" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M30" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N30" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O30" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P30" t="n">
-        <v>441.1170470498982</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q30" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R30" t="n">
-        <v>42.55755046047921</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K31" t="n">
-        <v>246.0250647946548</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L31" t="n">
         <v>491.230908743839</v>
       </c>
       <c r="M31" t="n">
-        <v>117.6110431853148</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N31" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O31" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P31" t="n">
-        <v>401.6967665587357</v>
+        <v>336.1694471918497</v>
       </c>
       <c r="Q31" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J32" t="n">
-        <v>139.7929329299602</v>
+        <v>139.7929329299607</v>
       </c>
       <c r="K32" t="n">
         <v>217.841661018815</v>
       </c>
       <c r="L32" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M32" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N32" t="n">
-        <v>318.4614564266568</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O32" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P32" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q32" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R32" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J33" t="n">
-        <v>80.17092516500243</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K33" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L33" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M33" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N33" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O33" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P33" t="n">
-        <v>334.5963396914078</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.4193642716995</v>
+        <v>242.3947695351754</v>
       </c>
       <c r="R33" t="n">
         <v>149.0782578189699</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K34" t="n">
-        <v>82.93740746931502</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L34" t="n">
-        <v>111.0401071366016</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M34" t="n">
-        <v>535.3236497134176</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N34" t="n">
-        <v>518.1577182818708</v>
+        <v>452.6303989149845</v>
       </c>
       <c r="O34" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P34" t="n">
-        <v>145.7451196670449</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J35" t="n">
         <v>139.7929329299602</v>
@@ -37311,25 +37311,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L35" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M35" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N35" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O35" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P35" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q35" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R35" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J36" t="n">
-        <v>80.17092516500243</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K36" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L36" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M36" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N36" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O36" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P36" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q36" t="n">
-        <v>266.0890178628646</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R36" t="n">
         <v>149.0782578189699</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K37" t="n">
-        <v>82.93740746931502</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L37" t="n">
-        <v>257.1419176609515</v>
+        <v>425.7035893769527</v>
       </c>
       <c r="M37" t="n">
-        <v>535.3236497134176</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N37" t="n">
-        <v>116.1042608658302</v>
+        <v>518.1577182818708</v>
       </c>
       <c r="O37" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P37" t="n">
         <v>401.6967665587357</v>
       </c>
       <c r="Q37" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J38" t="n">
         <v>139.7929329299602</v>
@@ -37548,25 +37548,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L38" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M38" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N38" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O38" t="n">
-        <v>298.5252541608753</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P38" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q38" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R38" t="n">
-        <v>90.20417955127002</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17092516500243</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K39" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L39" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M39" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N39" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O39" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P39" t="n">
-        <v>441.1170470498982</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q39" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R39" t="n">
-        <v>42.55755046047921</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.59065681481522</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K40" t="n">
-        <v>142.9011187324805</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L40" t="n">
-        <v>111.0401071366016</v>
+        <v>476.1793851732589</v>
       </c>
       <c r="M40" t="n">
-        <v>535.3236497134176</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N40" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O40" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P40" t="n">
-        <v>85.7814084038795</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q40" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J41" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K41" t="n">
-        <v>217.8416610188149</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L41" t="n">
-        <v>276.3089507468518</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M41" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N41" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O41" t="n">
-        <v>298.5252541608752</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P41" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q41" t="n">
-        <v>179.1726197395232</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R41" t="n">
-        <v>90.20417955126999</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17092516500243</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K42" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L42" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M42" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N42" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O42" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P42" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.0890178628649</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R42" t="n">
         <v>149.0782578189699</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.5906568148152</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K43" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L43" t="n">
-        <v>111.0401071366016</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M43" t="n">
-        <v>535.3236497134176</v>
+        <v>535.3236497134177</v>
       </c>
       <c r="N43" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O43" t="n">
-        <v>295.6076551010917</v>
+        <v>318.0997893442805</v>
       </c>
       <c r="P43" t="n">
-        <v>85.78140840387948</v>
+        <v>85.78140840387952</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.1688669098726</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.31426078510307</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J44" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K44" t="n">
-        <v>217.8416610188149</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L44" t="n">
-        <v>276.3089507468511</v>
+        <v>276.3089507468512</v>
       </c>
       <c r="M44" t="n">
-        <v>312.645212988123</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N44" t="n">
-        <v>318.4614564266569</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O44" t="n">
-        <v>298.5252541608752</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P44" t="n">
-        <v>249.1213547301729</v>
+        <v>249.121354730173</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.1726197395232</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R44" t="n">
-        <v>90.20417955126999</v>
+        <v>90.20417955127064</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.55473873451491</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17092516500243</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K45" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L45" t="n">
-        <v>209.0997345737845</v>
+        <v>209.0997345737846</v>
       </c>
       <c r="M45" t="n">
-        <v>247.1867913654333</v>
+        <v>247.1867913654334</v>
       </c>
       <c r="N45" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O45" t="n">
-        <v>230.6289225272657</v>
+        <v>230.6289225272658</v>
       </c>
       <c r="P45" t="n">
-        <v>181.9266861002427</v>
+        <v>181.9266861002428</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.6097252213553</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R45" t="n">
-        <v>42.55755046047919</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.5906568148152</v>
+        <v>42.59065681481523</v>
       </c>
       <c r="K46" t="n">
-        <v>82.93740746931502</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L46" t="n">
-        <v>323.9063410037056</v>
+        <v>425.7035893769527</v>
       </c>
       <c r="M46" t="n">
-        <v>535.3236497134176</v>
+        <v>117.6110431853149</v>
       </c>
       <c r="N46" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O46" t="n">
-        <v>485.4243570844131</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P46" t="n">
-        <v>85.78140840387948</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.26634430593423</v>
+        <v>50.26634430593425</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
